--- a/biology/Médecine/Glomérule_rénal/Glomérule_rénal.xlsx
+++ b/biology/Médecine/Glomérule_rénal/Glomérule_rénal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rule_r%C3%A9nal</t>
+          <t>Glomérule_rénal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glomérule rénal est la structure la plus proximale du néphron. Il constitue un réseau capillaire qui reçoit le sang de l'artériole afférente et qui le voit le quitter par l'artériole efférente. Ce réseau grâce à sa pression relativement haute permet la formation d'urine primitive, appelée également ultra-filtrat. Il participe (avec les deux feuillets de la capsule de Bowman) à la constitution du corpuscule de Malpighi.
 Le terme glomérule est d'ailleurs souvent utilisé, à tort, comme synonyme de néphron.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rule_r%C3%A9nal</t>
+          <t>Glomérule_rénal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Appareil juxtaglomérulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'appareil juxtaglomérulaire est une association de cellules fonctionnelle au sein du rein. Le glomérule des particules du rein le juxtapose. Il permet la régulation rénale de l'équilibre électrolytique, ainsi que la programmation systématique de la régulation de la pression du sang.</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rule_r%C3%A9nal</t>
+          <t>Glomérule_rénal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>La filtration glomérulaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la filtration du plasma sanguin au travers de la membrane basale du glomérule vers le tubule.
 Elle a pour but d'élaborer le filtrat glomérulaire ou urine primitive.
